--- a/Supplementary_Data_Tables/Excel_files/Supplementary_Table12_intrinsic_hydrolysis_kinetics.xlsx
+++ b/Supplementary_Data_Tables/Excel_files/Supplementary_Table12_intrinsic_hydrolysis_kinetics.xlsx
@@ -150,7 +150,7 @@
         <color theme="1"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> Intrinsic GTP hydrolysis rate of wild type and mutant Gsp1. Standard deviation is based on the data from three replicates.</t>
+      <t xml:space="preserve"> Intrinsic GTP hydrolysis rate of wild type and mutant Gsp1. Standard deviation is based on the data from2-9 replicates.</t>
     </r>
   </si>
 </sst>
@@ -158,6 +158,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -273,14 +276,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,7 +619,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -627,11 +630,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="49" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="45" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -648,10 +651,10 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>6.5561178770715804E-6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>6.0862083840673503E-6</v>
       </c>
     </row>
@@ -659,10 +662,10 @@
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>8.0063925969355394E-6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>6.6937133905424497E-6</v>
       </c>
     </row>
@@ -670,10 +673,10 @@
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>9.1321662027603607E-6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>5.8946887105012499E-6</v>
       </c>
     </row>
@@ -681,10 +684,10 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>1.0382795747277101E-5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>6.6603329365222005E-8</v>
       </c>
     </row>
@@ -692,10 +695,10 @@
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>1.43841970174785E-5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>9.7609445189783497E-7</v>
       </c>
     </row>
@@ -703,10 +706,10 @@
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>1.4516708174315299E-5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>1.62276118382991E-6</v>
       </c>
     </row>
@@ -714,10 +717,10 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>1.5778978689671599E-5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>2.1522176454999399E-7</v>
       </c>
     </row>
@@ -725,10 +728,10 @@
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>1.7536764737682999E-5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>8.7881330711623093E-6</v>
       </c>
     </row>
@@ -736,10 +739,10 @@
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>1.8460567115006299E-5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>8.3796547862746802E-7</v>
       </c>
     </row>
@@ -747,10 +750,10 @@
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>1.9332614803324401E-5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>1.8789538751762199E-6</v>
       </c>
     </row>
@@ -758,10 +761,10 @@
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>1.9342878233192501E-5</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>8.6744798416329498E-7</v>
       </c>
     </row>
@@ -769,10 +772,10 @@
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>1.9426193307850501E-5</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <v>1.99303493925239E-6</v>
       </c>
     </row>
@@ -780,10 +783,10 @@
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="6">
         <v>2.0120767924675801E-5</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="6">
         <v>4.2287734859376599E-6</v>
       </c>
     </row>
@@ -791,10 +794,10 @@
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="6">
         <v>2.0214977318397299E-5</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <v>6.2859202199017199E-6</v>
       </c>
     </row>
@@ -802,10 +805,10 @@
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="6">
         <v>2.0752962356372699E-5</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="6">
         <v>5.4316417327736803E-7</v>
       </c>
     </row>
@@ -813,10 +816,10 @@
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="6">
         <v>2.5446716250879401E-5</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="6">
         <v>2.9032938133761399E-6</v>
       </c>
     </row>
@@ -824,10 +827,10 @@
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="6">
         <v>2.7233694113333202E-5</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="6">
         <v>4.7767088200870502E-6</v>
       </c>
     </row>
@@ -835,10 +838,10 @@
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="6">
         <v>2.87793457716881E-5</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="6">
         <v>1.2620604981932701E-7</v>
       </c>
     </row>
@@ -846,10 +849,10 @@
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="6">
         <v>2.9409807435381101E-5</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="6">
         <v>1.5222490824558699E-6</v>
       </c>
     </row>
@@ -857,10 +860,10 @@
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="6">
         <v>3.03547033439864E-5</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="6">
         <v>1.87706489094788E-6</v>
       </c>
     </row>
@@ -868,10 +871,10 @@
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="6">
         <v>3.27907006833611E-5</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="6">
         <v>1.30882027179434E-5</v>
       </c>
     </row>
@@ -879,10 +882,10 @@
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="6">
         <v>3.3643730909914003E-5</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="6">
         <v>1.5156603751938499E-5</v>
       </c>
     </row>
@@ -890,10 +893,10 @@
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="6">
         <v>3.5046570591471901E-5</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="6">
         <v>5.1191953128941203E-6</v>
       </c>
     </row>
